--- a/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject (version 1).xlsb.xlsx
+++ b/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject (version 1).xlsb.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\ProjectFolder\CSC289\ProjectGoals\BurnDownCharts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75966172-4D0C-43AD-BC47-9A3A498C886C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6585B7-3A33-4A4D-8B84-C7D7CB2DA3C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Points" sheetId="1" r:id="rId1"/>
     <sheet name="Points By Week" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -466,7 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -533,6 +532,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,19 +583,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C62BAA-774C-4B40-AD93-969A55E92B30}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,48 +917,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1051,10 +1053,18 @@
       <c r="M4" s="12">
         <v>19</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1419,7 +1429,7 @@
       <c r="C29" s="39">
         <v>2</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="42">
         <v>2</v>
       </c>
     </row>
@@ -1433,7 +1443,7 @@
       <c r="C30" s="39">
         <v>5</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="42">
         <v>4</v>
       </c>
       <c r="E30" s="37"/>
@@ -1448,7 +1458,7 @@
       <c r="C31" s="28">
         <v>1</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="43">
         <v>2</v>
       </c>
       <c r="E31" s="37"/>
@@ -1463,7 +1473,7 @@
       <c r="C32" s="28">
         <v>8</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="59">
         <v>6.5</v>
       </c>
       <c r="E32" s="37"/>
@@ -1478,7 +1488,7 @@
       <c r="C33" s="40">
         <v>1</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="44">
         <v>1</v>
       </c>
       <c r="E33" s="37"/>
@@ -1493,7 +1503,7 @@
       <c r="C34" s="28">
         <v>5</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="43">
         <v>6.5</v>
       </c>
       <c r="E34" s="37"/>
@@ -1509,7 +1519,7 @@
       <c r="C35" s="40">
         <v>3</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="45">
         <v>4</v>
       </c>
       <c r="E35" s="37"/>
@@ -1524,7 +1534,7 @@
       <c r="C36" s="39">
         <v>1</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="42">
         <v>1.5</v>
       </c>
       <c r="E36" s="37"/>
@@ -1539,7 +1549,7 @@
       <c r="C37" s="39">
         <v>5</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="42">
         <v>4</v>
       </c>
       <c r="E37" s="37"/>
@@ -1554,7 +1564,7 @@
       <c r="C38" s="28">
         <v>3</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="46">
         <v>4</v>
       </c>
     </row>
@@ -1568,7 +1578,7 @@
       <c r="C39" s="40">
         <v>1</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="45">
         <v>1</v>
       </c>
     </row>
@@ -1582,7 +1592,7 @@
       <c r="C40" s="40">
         <v>13</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="45">
         <v>13</v>
       </c>
     </row>
@@ -1604,9 +1614,9 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="38"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
@@ -1744,21 +1754,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">

--- a/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject (version 1).xlsb.xlsx
+++ b/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\ProjectFolder\CSC289\ProjectGoals\BurnDownCharts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6585B7-3A33-4A4D-8B84-C7D7CB2DA3C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1513BF36-D591-44D3-8866-EE9E6EEA8F02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Points" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Story Points (Fibonacci Scale)</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Registration Notification</t>
+  </si>
+  <si>
+    <t>Admin Clock-In</t>
   </si>
 </sst>
 </file>
@@ -538,9 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,7 +583,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C62BAA-774C-4B40-AD93-969A55E92B30}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,48 +920,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1467,14 +1470,14 @@
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28">
-        <v>5</v>
-      </c>
-      <c r="C32" s="28">
-        <v>8</v>
-      </c>
-      <c r="D32" s="59">
-        <v>6.5</v>
+      <c r="B32" s="40">
+        <v>1</v>
+      </c>
+      <c r="C32" s="40">
+        <v>1</v>
+      </c>
+      <c r="D32" s="44">
+        <v>1</v>
       </c>
       <c r="E32" s="37"/>
     </row>
@@ -1482,14 +1485,14 @@
       <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="40">
-        <v>1</v>
-      </c>
-      <c r="C33" s="40">
-        <v>1</v>
-      </c>
-      <c r="D33" s="44">
-        <v>1</v>
+      <c r="B33" s="58">
+        <v>5</v>
+      </c>
+      <c r="C33" s="58">
+        <v>8</v>
+      </c>
+      <c r="D33" s="59">
+        <v>6.5</v>
       </c>
       <c r="E33" s="37"/>
     </row>
@@ -1519,7 +1522,7 @@
       <c r="C35" s="40">
         <v>3</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="44">
         <v>4</v>
       </c>
       <c r="E35" s="37"/>
@@ -1564,7 +1567,7 @@
       <c r="C38" s="28">
         <v>3</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="45">
         <v>4</v>
       </c>
     </row>
@@ -1578,7 +1581,7 @@
       <c r="C39" s="40">
         <v>1</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="44">
         <v>1</v>
       </c>
     </row>
@@ -1592,41 +1595,49 @@
       <c r="C40" s="40">
         <v>13</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="44">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="40">
+        <v>2</v>
+      </c>
+      <c r="C41" s="40">
+        <v>2</v>
+      </c>
+      <c r="D41" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="28">
-        <f>SUM(B6:B40)</f>
-        <v>107</v>
-      </c>
-      <c r="C41" s="41">
-        <f>SUM(C6:C40)</f>
-        <v>107</v>
-      </c>
-      <c r="D41" s="28">
-        <f>SUM(D6:D40)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="38"/>
+      <c r="B42" s="28">
+        <f>SUM(B6:B41)</f>
+        <v>109</v>
+      </c>
+      <c r="C42" s="41">
+        <f>SUM(C6:C41)</f>
+        <v>109</v>
+      </c>
+      <c r="D42" s="28">
+        <f>SUM(D6:D41)</f>
+        <v>109</v>
+      </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -1659,10 +1670,10 @@
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -1677,10 +1688,10 @@
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -1713,10 +1724,10 @@
       <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
@@ -1730,10 +1741,16 @@
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:Q2"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -1754,21 +1771,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
